--- a/Data/Export/9 RB Gorges aux Loups.xlsx
+++ b/Data/Export/9 RB Gorges aux Loups.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="-465" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Placettes" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Reperes!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Transect!$A$1:$L$313</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210" iterateDelta="1E-4" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4120" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4121" uniqueCount="122">
   <si>
     <t>num</t>
   </si>
@@ -397,28 +392,29 @@
   <si>
     <t>Groupe2</t>
   </si>
+  <si>
+    <t>Habitat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -427,26 +423,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="238"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="12"/>
@@ -455,10 +445,6 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="6">
@@ -475,19 +461,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,8 +487,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -512,81 +508,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="16"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="20">
-    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="16"/>
-    <cellStyle name="Normal 4" xfId="17"/>
-    <cellStyle name="Pourcentage 2" xfId="7"/>
-    <cellStyle name="XLConnect.Boolean" xfId="4"/>
-    <cellStyle name="XLConnect.DateTime" xfId="5"/>
-    <cellStyle name="XLConnect.Header" xfId="1"/>
-    <cellStyle name="XLConnect.Numeric" xfId="3"/>
-    <cellStyle name="XLConnect.String" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Pourcentage 2" xfId="4"/>
+    <cellStyle name="XLConnect.Boolean" xfId="5"/>
+    <cellStyle name="XLConnect.DateTime" xfId="6"/>
+    <cellStyle name="XLConnect.Header" xfId="7"/>
+    <cellStyle name="XLConnect.Numeric" xfId="8"/>
+    <cellStyle name="XLConnect.String" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -876,18 +835,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2780" topLeftCell="A33"/>
-      <selection activeCell="R1" sqref="R1:S1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2775" topLeftCell="A33"/>
+      <selection activeCell="T2" sqref="T2"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="4" t="s">
         <v>112</v>
       </c>
@@ -945,8 +904,11 @@
       <c r="S1" s="10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="3">
         <v>9</v>
       </c>
@@ -975,7 +937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="3">
         <v>9</v>
       </c>
@@ -1001,7 +963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <v>9</v>
       </c>
@@ -1027,7 +989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <v>9</v>
       </c>
@@ -1056,7 +1018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>9</v>
       </c>
@@ -1085,7 +1047,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <v>9</v>
       </c>
@@ -1111,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20">
       <c r="A8" s="3">
         <v>9</v>
       </c>
@@ -1137,7 +1099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -1166,7 +1128,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1195,7 +1157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1224,7 +1186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1253,7 +1215,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -1279,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20">
       <c r="A14" s="3">
         <v>9</v>
       </c>
@@ -1305,7 +1267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -1331,7 +1293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:20">
       <c r="A16" s="3">
         <v>9</v>
       </c>
@@ -1834,30 +1796,23 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q33"/>
-  <sortState ref="A2:V33">
-    <sortCondition ref="B2:B33"/>
-  </sortState>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1940" topLeftCell="A569"/>
+      <pane ySplit="1935" topLeftCell="A569"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="E585" sqref="E585"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="4" t="s">
@@ -23084,32 +23039,23 @@
       <c r="O568" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:Q568">
-    <sortCondition ref="A2:A568"/>
-    <sortCondition ref="B2:B568"/>
-    <sortCondition ref="F2:F568"/>
-  </sortState>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6140" topLeftCell="A109"/>
+      <pane ySplit="6135" topLeftCell="A109"/>
       <selection activeCell="G14" sqref="G14"/>
       <selection pane="bottomLeft" activeCell="C116" sqref="C116:C122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="10" t="s">
@@ -23187,7 +23133,7 @@
       <c r="A3" s="3">
         <v>9</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3">
@@ -23216,7 +23162,7 @@
       <c r="A4" s="3">
         <v>9</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3">
@@ -23245,7 +23191,7 @@
       <c r="A5" s="3">
         <v>9</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3">
@@ -23274,7 +23220,7 @@
       <c r="A6" s="3">
         <v>9</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="3">
@@ -23303,7 +23249,7 @@
       <c r="A7" s="3">
         <v>9</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="3">
@@ -23332,7 +23278,7 @@
       <c r="A8" s="3">
         <v>9</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="3">
@@ -23361,7 +23307,7 @@
       <c r="A9" s="3">
         <v>9</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="3">
@@ -23390,7 +23336,7 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="3">
@@ -23419,7 +23365,7 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="3">
@@ -23448,7 +23394,7 @@
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3">
@@ -23477,7 +23423,7 @@
       <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="3">
@@ -23506,7 +23452,7 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3">
@@ -23535,7 +23481,7 @@
       <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="3">
@@ -23564,7 +23510,7 @@
       <c r="A16" s="3">
         <v>9</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="3">
@@ -23593,7 +23539,7 @@
       <c r="A17" s="3">
         <v>9</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" s="3">
@@ -23622,7 +23568,7 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="3">
@@ -23651,7 +23597,7 @@
       <c r="A19" s="3">
         <v>9</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="3">
         <v>1</v>
       </c>
       <c r="C19" s="3">
@@ -23680,7 +23626,7 @@
       <c r="A20" s="3">
         <v>9</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="3">
         <v>1</v>
       </c>
       <c r="C20" s="3">
@@ -23709,7 +23655,7 @@
       <c r="A21" s="3">
         <v>9</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" s="3">
@@ -23738,7 +23684,7 @@
       <c r="A22" s="3">
         <v>9</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="3">
@@ -23767,7 +23713,7 @@
       <c r="A23" s="3">
         <v>9</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" s="3">
@@ -23796,7 +23742,7 @@
       <c r="A24" s="3">
         <v>9</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" s="3">
@@ -23825,7 +23771,7 @@
       <c r="A25" s="3">
         <v>9</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="3">
         <v>1</v>
       </c>
       <c r="C25" s="3">
@@ -23854,7 +23800,7 @@
       <c r="A26" s="3">
         <v>9</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="3">
         <v>1</v>
       </c>
       <c r="C26" s="3">
@@ -23883,7 +23829,7 @@
       <c r="A27" s="3">
         <v>9</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="3">
         <v>1</v>
       </c>
       <c r="C27" s="3">
@@ -23912,7 +23858,7 @@
       <c r="A28" s="3">
         <v>9</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="3">
         <v>1</v>
       </c>
       <c r="C28" s="3">
@@ -23941,7 +23887,7 @@
       <c r="A29" s="3">
         <v>9</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="3">
         <v>1</v>
       </c>
       <c r="C29" s="3">
@@ -23970,7 +23916,7 @@
       <c r="A30" s="3">
         <v>9</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="3">
         <v>1</v>
       </c>
       <c r="C30" s="3">
@@ -23999,7 +23945,7 @@
       <c r="A31" s="3">
         <v>9</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="3">
         <v>1</v>
       </c>
       <c r="C31" s="3">
@@ -24028,7 +23974,7 @@
       <c r="A32" s="3">
         <v>9</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="3">
         <v>1</v>
       </c>
       <c r="C32" s="3">
@@ -24057,7 +24003,7 @@
       <c r="A33" s="3">
         <v>9</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="3">
         <v>1</v>
       </c>
       <c r="C33" s="3">
@@ -24086,7 +24032,7 @@
       <c r="A34" s="3">
         <v>9</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="3">
         <v>1</v>
       </c>
       <c r="C34" s="3">
@@ -24115,7 +24061,7 @@
       <c r="A35" s="3">
         <v>9</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="3">
         <v>1</v>
       </c>
       <c r="C35" s="3">
@@ -24144,7 +24090,7 @@
       <c r="A36" s="3">
         <v>9</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="3">
         <v>1</v>
       </c>
       <c r="C36" s="3">
@@ -24173,7 +24119,7 @@
       <c r="A37" s="3">
         <v>9</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="3">
         <v>1</v>
       </c>
       <c r="C37" s="3">
@@ -24202,7 +24148,7 @@
       <c r="A38" s="3">
         <v>9</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="3">
         <v>1</v>
       </c>
       <c r="C38" s="3">
@@ -24231,7 +24177,7 @@
       <c r="A39" s="3">
         <v>9</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="3">
         <v>1</v>
       </c>
       <c r="C39" s="3">
@@ -24260,7 +24206,7 @@
       <c r="A40" s="3">
         <v>9</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="3">
         <v>1</v>
       </c>
       <c r="C40" s="3">
@@ -24289,7 +24235,7 @@
       <c r="A41" s="3">
         <v>9</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="3">
         <v>1</v>
       </c>
       <c r="C41" s="3">
@@ -24318,7 +24264,7 @@
       <c r="A42" s="3">
         <v>9</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="3">
         <v>1</v>
       </c>
       <c r="C42" s="3">
@@ -24347,7 +24293,7 @@
       <c r="A43" s="3">
         <v>9</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="3">
         <v>1</v>
       </c>
       <c r="C43" s="3">
@@ -24376,7 +24322,7 @@
       <c r="A44" s="3">
         <v>9</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="3">
         <v>1</v>
       </c>
       <c r="C44" s="3">
@@ -24405,7 +24351,7 @@
       <c r="A45" s="3">
         <v>9</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="3">
         <v>1</v>
       </c>
       <c r="C45" s="3">
@@ -24434,7 +24380,7 @@
       <c r="A46" s="3">
         <v>9</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="3">
         <v>1</v>
       </c>
       <c r="C46" s="3">
@@ -24463,7 +24409,7 @@
       <c r="A47" s="3">
         <v>9</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="3">
         <v>1</v>
       </c>
       <c r="C47" s="3">
@@ -24492,7 +24438,7 @@
       <c r="A48" s="3">
         <v>9</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="3">
         <v>1</v>
       </c>
       <c r="C48" s="3">
@@ -24521,7 +24467,7 @@
       <c r="A49" s="3">
         <v>9</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="3">
         <v>1</v>
       </c>
       <c r="C49" s="3">
@@ -24550,7 +24496,7 @@
       <c r="A50" s="3">
         <v>9</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="3">
         <v>1</v>
       </c>
       <c r="C50" s="3">
@@ -24579,7 +24525,7 @@
       <c r="A51" s="3">
         <v>9</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="3">
         <v>1</v>
       </c>
       <c r="C51" s="3">
@@ -24608,7 +24554,7 @@
       <c r="A52" s="3">
         <v>9</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="3">
         <v>1</v>
       </c>
       <c r="C52" s="3">
@@ -24639,7 +24585,7 @@
       <c r="A53" s="3">
         <v>9</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="3">
         <v>1</v>
       </c>
       <c r="C53" s="3">
@@ -24668,7 +24614,7 @@
       <c r="A54" s="3">
         <v>9</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="3">
         <v>1</v>
       </c>
       <c r="C54" s="3">
@@ -24697,7 +24643,7 @@
       <c r="A55" s="3">
         <v>9</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="3">
         <v>1</v>
       </c>
       <c r="C55" s="3">
@@ -24726,7 +24672,7 @@
       <c r="A56" s="3">
         <v>9</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="3">
         <v>1</v>
       </c>
       <c r="C56" s="3">
@@ -24755,7 +24701,7 @@
       <c r="A57" s="3">
         <v>9</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="3">
         <v>1</v>
       </c>
       <c r="C57" s="3">
@@ -24784,7 +24730,7 @@
       <c r="A58" s="3">
         <v>9</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="3">
         <v>1</v>
       </c>
       <c r="C58" s="3">
@@ -24813,7 +24759,7 @@
       <c r="A59" s="3">
         <v>9</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="3">
         <v>1</v>
       </c>
       <c r="C59" s="3">
@@ -24842,7 +24788,7 @@
       <c r="A60" s="3">
         <v>9</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="3">
         <v>1</v>
       </c>
       <c r="C60" s="3">
@@ -24871,7 +24817,7 @@
       <c r="A61" s="3">
         <v>9</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="3">
         <v>1</v>
       </c>
       <c r="C61" s="3">
@@ -24900,7 +24846,7 @@
       <c r="A62" s="3">
         <v>9</v>
       </c>
-      <c r="B62" s="14">
+      <c r="B62" s="3">
         <v>1</v>
       </c>
       <c r="C62" s="3">
@@ -24929,7 +24875,7 @@
       <c r="A63" s="3">
         <v>9</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="3">
         <v>1</v>
       </c>
       <c r="C63" s="3">
@@ -24958,7 +24904,7 @@
       <c r="A64" s="3">
         <v>9</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="3">
         <v>1</v>
       </c>
       <c r="C64" s="3">
@@ -24987,7 +24933,7 @@
       <c r="A65" s="3">
         <v>9</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="3">
         <v>1</v>
       </c>
       <c r="C65" s="3">
@@ -25016,7 +24962,7 @@
       <c r="A66" s="3">
         <v>9</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="3">
         <v>1</v>
       </c>
       <c r="C66" s="3">
@@ -25045,7 +24991,7 @@
       <c r="A67" s="3">
         <v>9</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="3">
         <v>1</v>
       </c>
       <c r="C67" s="3">
@@ -25074,7 +25020,7 @@
       <c r="A68" s="3">
         <v>9</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B68" s="3">
         <v>1</v>
       </c>
       <c r="C68" s="3">
@@ -25103,7 +25049,7 @@
       <c r="A69" s="3">
         <v>9</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="3">
         <v>1</v>
       </c>
       <c r="C69" s="3">
@@ -25132,7 +25078,7 @@
       <c r="A70" s="3">
         <v>9</v>
       </c>
-      <c r="B70" s="14">
+      <c r="B70" s="3">
         <v>1</v>
       </c>
       <c r="C70" s="3">
@@ -25161,7 +25107,7 @@
       <c r="A71" s="3">
         <v>9</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B71" s="3">
         <v>1</v>
       </c>
       <c r="C71" s="3">
@@ -25190,7 +25136,7 @@
       <c r="A72" s="3">
         <v>9</v>
       </c>
-      <c r="B72" s="14">
+      <c r="B72" s="3">
         <v>1</v>
       </c>
       <c r="C72" s="3">
@@ -25219,7 +25165,7 @@
       <c r="A73" s="3">
         <v>9</v>
       </c>
-      <c r="B73" s="14">
+      <c r="B73" s="3">
         <v>1</v>
       </c>
       <c r="C73" s="3">
@@ -25248,7 +25194,7 @@
       <c r="A74" s="3">
         <v>9</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B74" s="3">
         <v>1</v>
       </c>
       <c r="C74" s="3">
@@ -25277,7 +25223,7 @@
       <c r="A75" s="3">
         <v>9</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B75" s="3">
         <v>1</v>
       </c>
       <c r="C75" s="3">
@@ -25306,7 +25252,7 @@
       <c r="A76" s="3">
         <v>9</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B76" s="3">
         <v>1</v>
       </c>
       <c r="C76" s="3">
@@ -25335,7 +25281,7 @@
       <c r="A77" s="3">
         <v>9</v>
       </c>
-      <c r="B77" s="14">
+      <c r="B77" s="3">
         <v>1</v>
       </c>
       <c r="C77" s="3">
@@ -25364,7 +25310,7 @@
       <c r="A78" s="3">
         <v>9</v>
       </c>
-      <c r="B78" s="14">
+      <c r="B78" s="3">
         <v>1</v>
       </c>
       <c r="C78" s="3">
@@ -25393,7 +25339,7 @@
       <c r="A79" s="3">
         <v>9</v>
       </c>
-      <c r="B79" s="14">
+      <c r="B79" s="3">
         <v>1</v>
       </c>
       <c r="C79" s="3">
@@ -25422,7 +25368,7 @@
       <c r="A80" s="3">
         <v>9</v>
       </c>
-      <c r="B80" s="14">
+      <c r="B80" s="3">
         <v>1</v>
       </c>
       <c r="C80" s="3">
@@ -25451,7 +25397,7 @@
       <c r="A81" s="3">
         <v>9</v>
       </c>
-      <c r="B81" s="14">
+      <c r="B81" s="3">
         <v>1</v>
       </c>
       <c r="C81" s="3">
@@ -25480,7 +25426,7 @@
       <c r="A82" s="3">
         <v>9</v>
       </c>
-      <c r="B82" s="14">
+      <c r="B82" s="3">
         <v>1</v>
       </c>
       <c r="C82" s="3">
@@ -25509,7 +25455,7 @@
       <c r="A83" s="3">
         <v>9</v>
       </c>
-      <c r="B83" s="14">
+      <c r="B83" s="3">
         <v>1</v>
       </c>
       <c r="C83" s="3">
@@ -25538,7 +25484,7 @@
       <c r="A84" s="3">
         <v>9</v>
       </c>
-      <c r="B84" s="14">
+      <c r="B84" s="3">
         <v>1</v>
       </c>
       <c r="C84" s="3">
@@ -25567,7 +25513,7 @@
       <c r="A85" s="3">
         <v>9</v>
       </c>
-      <c r="B85" s="14">
+      <c r="B85" s="3">
         <v>1</v>
       </c>
       <c r="C85" s="3">
@@ -25596,7 +25542,7 @@
       <c r="A86" s="3">
         <v>9</v>
       </c>
-      <c r="B86" s="14">
+      <c r="B86" s="3">
         <v>1</v>
       </c>
       <c r="C86" s="3">
@@ -25625,7 +25571,7 @@
       <c r="A87" s="3">
         <v>9</v>
       </c>
-      <c r="B87" s="14">
+      <c r="B87" s="3">
         <v>1</v>
       </c>
       <c r="C87" s="3">
@@ -25654,7 +25600,7 @@
       <c r="A88" s="3">
         <v>9</v>
       </c>
-      <c r="B88" s="14">
+      <c r="B88" s="3">
         <v>1</v>
       </c>
       <c r="C88" s="3">
@@ -25683,7 +25629,7 @@
       <c r="A89" s="3">
         <v>9</v>
       </c>
-      <c r="B89" s="14">
+      <c r="B89" s="3">
         <v>1</v>
       </c>
       <c r="C89" s="3">
@@ -25712,7 +25658,7 @@
       <c r="A90" s="3">
         <v>9</v>
       </c>
-      <c r="B90" s="14">
+      <c r="B90" s="3">
         <v>1</v>
       </c>
       <c r="C90" s="3">
@@ -25741,7 +25687,7 @@
       <c r="A91" s="3">
         <v>9</v>
       </c>
-      <c r="B91" s="14">
+      <c r="B91" s="3">
         <v>1</v>
       </c>
       <c r="C91" s="3">
@@ -25770,7 +25716,7 @@
       <c r="A92" s="3">
         <v>9</v>
       </c>
-      <c r="B92" s="14">
+      <c r="B92" s="3">
         <v>1</v>
       </c>
       <c r="C92" s="3">
@@ -25799,7 +25745,7 @@
       <c r="A93" s="3">
         <v>9</v>
       </c>
-      <c r="B93" s="14">
+      <c r="B93" s="3">
         <v>1</v>
       </c>
       <c r="C93" s="3">
@@ -25828,7 +25774,7 @@
       <c r="A94" s="3">
         <v>9</v>
       </c>
-      <c r="B94" s="14">
+      <c r="B94" s="3">
         <v>1</v>
       </c>
       <c r="C94" s="3">
@@ -25857,7 +25803,7 @@
       <c r="A95" s="3">
         <v>9</v>
       </c>
-      <c r="B95" s="14">
+      <c r="B95" s="3">
         <v>1</v>
       </c>
       <c r="C95" s="3">
@@ -25886,7 +25832,7 @@
       <c r="A96" s="3">
         <v>9</v>
       </c>
-      <c r="B96" s="14">
+      <c r="B96" s="3">
         <v>1</v>
       </c>
       <c r="C96" s="3">
@@ -25915,7 +25861,7 @@
       <c r="A97" s="3">
         <v>9</v>
       </c>
-      <c r="B97" s="14">
+      <c r="B97" s="3">
         <v>1</v>
       </c>
       <c r="C97">
@@ -25938,7 +25884,7 @@
       <c r="A98" s="3">
         <v>9</v>
       </c>
-      <c r="B98" s="14">
+      <c r="B98" s="3">
         <v>1</v>
       </c>
       <c r="C98">
@@ -25961,7 +25907,7 @@
       <c r="A99" s="3">
         <v>9</v>
       </c>
-      <c r="B99" s="14">
+      <c r="B99" s="3">
         <v>1</v>
       </c>
       <c r="C99">
@@ -25984,7 +25930,7 @@
       <c r="A100" s="3">
         <v>9</v>
       </c>
-      <c r="B100" s="14">
+      <c r="B100" s="3">
         <v>1</v>
       </c>
       <c r="C100">
@@ -26007,7 +25953,7 @@
       <c r="A101" s="3">
         <v>9</v>
       </c>
-      <c r="B101" s="14">
+      <c r="B101" s="3">
         <v>1</v>
       </c>
       <c r="C101">
@@ -26030,7 +25976,7 @@
       <c r="A102" s="3">
         <v>9</v>
       </c>
-      <c r="B102" s="14">
+      <c r="B102" s="3">
         <v>1</v>
       </c>
       <c r="C102">
@@ -26053,7 +25999,7 @@
       <c r="A103" s="3">
         <v>9</v>
       </c>
-      <c r="B103" s="14">
+      <c r="B103" s="3">
         <v>1</v>
       </c>
       <c r="C103">
@@ -26076,7 +26022,7 @@
       <c r="A104" s="3">
         <v>9</v>
       </c>
-      <c r="B104" s="14">
+      <c r="B104" s="3">
         <v>1</v>
       </c>
       <c r="C104">
@@ -26099,7 +26045,7 @@
       <c r="A105" s="3">
         <v>9</v>
       </c>
-      <c r="B105" s="14">
+      <c r="B105" s="3">
         <v>1</v>
       </c>
       <c r="C105">
@@ -26122,7 +26068,7 @@
       <c r="A106" s="3">
         <v>9</v>
       </c>
-      <c r="B106" s="14">
+      <c r="B106" s="3">
         <v>1</v>
       </c>
       <c r="C106">
@@ -26145,7 +26091,7 @@
       <c r="A107" s="3">
         <v>9</v>
       </c>
-      <c r="B107" s="14">
+      <c r="B107" s="3">
         <v>1</v>
       </c>
       <c r="C107">
@@ -26168,7 +26114,7 @@
       <c r="A108" s="3">
         <v>9</v>
       </c>
-      <c r="B108" s="14">
+      <c r="B108" s="3">
         <v>1</v>
       </c>
       <c r="C108">
@@ -26191,7 +26137,7 @@
       <c r="A109" s="3">
         <v>9</v>
       </c>
-      <c r="B109" s="14">
+      <c r="B109" s="3">
         <v>1</v>
       </c>
       <c r="C109">
@@ -26214,7 +26160,7 @@
       <c r="A110" s="3">
         <v>9</v>
       </c>
-      <c r="B110" s="14">
+      <c r="B110" s="3">
         <v>1</v>
       </c>
       <c r="C110">
@@ -26237,7 +26183,7 @@
       <c r="A111" s="3">
         <v>9</v>
       </c>
-      <c r="B111" s="14">
+      <c r="B111" s="3">
         <v>1</v>
       </c>
       <c r="C111">
@@ -26260,7 +26206,7 @@
       <c r="A112" s="3">
         <v>9</v>
       </c>
-      <c r="B112" s="14">
+      <c r="B112" s="3">
         <v>1</v>
       </c>
       <c r="C112">
@@ -26283,7 +26229,7 @@
       <c r="A113" s="3">
         <v>9</v>
       </c>
-      <c r="B113" s="14">
+      <c r="B113" s="3">
         <v>1</v>
       </c>
       <c r="C113">
@@ -26306,7 +26252,7 @@
       <c r="A114" s="3">
         <v>9</v>
       </c>
-      <c r="B114" s="14">
+      <c r="B114" s="3">
         <v>1</v>
       </c>
       <c r="C114">
@@ -26329,7 +26275,7 @@
       <c r="A115" s="3">
         <v>9</v>
       </c>
-      <c r="B115" s="14">
+      <c r="B115" s="3">
         <v>1</v>
       </c>
       <c r="C115">
@@ -26352,7 +26298,7 @@
       <c r="A116" s="3">
         <v>9</v>
       </c>
-      <c r="B116" s="14">
+      <c r="B116" s="3">
         <v>1</v>
       </c>
       <c r="C116" s="8">
@@ -26375,7 +26321,7 @@
       <c r="A117" s="3">
         <v>9</v>
       </c>
-      <c r="B117" s="14">
+      <c r="B117" s="3">
         <v>1</v>
       </c>
       <c r="C117" s="8">
@@ -26398,7 +26344,7 @@
       <c r="A118" s="3">
         <v>9</v>
       </c>
-      <c r="B118" s="14">
+      <c r="B118" s="3">
         <v>1</v>
       </c>
       <c r="C118" s="8">
@@ -26424,7 +26370,7 @@
       <c r="A119" s="3">
         <v>9</v>
       </c>
-      <c r="B119" s="14">
+      <c r="B119" s="3">
         <v>1</v>
       </c>
       <c r="C119" s="8">
@@ -26447,7 +26393,7 @@
       <c r="A120" s="3">
         <v>9</v>
       </c>
-      <c r="B120" s="14">
+      <c r="B120" s="3">
         <v>1</v>
       </c>
       <c r="C120" s="8">
@@ -26470,7 +26416,7 @@
       <c r="A121" s="3">
         <v>9</v>
       </c>
-      <c r="B121" s="14">
+      <c r="B121" s="3">
         <v>1</v>
       </c>
       <c r="C121" s="8">
@@ -26493,7 +26439,7 @@
       <c r="A122" s="3">
         <v>9</v>
       </c>
-      <c r="B122" s="14">
+      <c r="B122" s="3">
         <v>1</v>
       </c>
       <c r="C122" s="8">
@@ -26514,25 +26460,21 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M122"/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="10" t="s">
@@ -37443,27 +37385,23 @@
       <c r="L313" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="J2:K313" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="10" t="s">
@@ -42610,27 +42548,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="K2:L138" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
@@ -42656,592 +42590,584 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="14">
-        <v>9</v>
-      </c>
-      <c r="B2" s="14">
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="3">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3">
         <v>4</v>
       </c>
       <c r="C2" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="14">
-        <v>9</v>
-      </c>
-      <c r="B3" s="14">
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="3">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
         <v>6</v>
       </c>
       <c r="C3" s="13">
         <v>1</v>
       </c>
-      <c r="D3" s="14">
-        <v>4</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="14">
-        <v>9</v>
-      </c>
-      <c r="B4" s="14">
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="A4" s="3">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
         <v>8</v>
       </c>
       <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="14">
-        <v>4</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="14">
-        <v>9</v>
-      </c>
-      <c r="B5" s="14">
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" s="3">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
         <v>9</v>
       </c>
       <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="14">
-        <v>9</v>
-      </c>
-      <c r="B6" s="14">
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" s="3">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
         <v>13</v>
       </c>
       <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="14">
-        <v>9</v>
-      </c>
-      <c r="B7" s="14">
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="3">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
         <v>17</v>
       </c>
       <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="14">
-        <v>4</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="14">
-        <v>9</v>
-      </c>
-      <c r="B8" s="14">
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="3">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
         <v>19</v>
       </c>
       <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="14">
-        <v>4</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="14">
-        <v>9</v>
-      </c>
-      <c r="B9" s="14">
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
         <v>22</v>
       </c>
       <c r="C9" s="13">
         <v>1</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14">
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
         <v>24</v>
       </c>
       <c r="C10" s="13">
         <v>1</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="14">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14">
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
         <v>26</v>
       </c>
       <c r="C11" s="13">
         <v>1</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="14">
-        <v>9</v>
-      </c>
-      <c r="B12" s="14">
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
         <v>28</v>
       </c>
       <c r="C12" s="13">
         <v>1</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="14">
-        <v>9</v>
-      </c>
-      <c r="B13" s="14">
+    <row r="13" spans="1:5" ht="15.75">
+      <c r="A13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3">
         <v>30</v>
       </c>
       <c r="C13" s="13">
         <v>1</v>
       </c>
-      <c r="D13" s="14">
-        <v>4</v>
-      </c>
-      <c r="E13" s="18">
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="14">
-        <v>9</v>
-      </c>
-      <c r="B14" s="14">
+    <row r="14" spans="1:5" ht="15.75">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3">
         <v>32</v>
       </c>
       <c r="C14" s="13">
         <v>1</v>
       </c>
-      <c r="D14" s="14">
-        <v>4</v>
-      </c>
-      <c r="E14" s="18">
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="14">
-        <v>9</v>
-      </c>
-      <c r="B15" s="14">
+    <row r="15" spans="1:5" ht="15.75">
+      <c r="A15" s="3">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3">
         <v>34</v>
       </c>
       <c r="C15" s="13">
         <v>1</v>
       </c>
-      <c r="D15" s="14">
-        <v>4</v>
-      </c>
-      <c r="E15" s="18">
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="14">
-        <v>9</v>
-      </c>
-      <c r="B16" s="14">
+    <row r="16" spans="1:5" ht="15.75">
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3">
         <v>39</v>
       </c>
       <c r="C16" s="13">
         <v>1</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="3">
         <v>3</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15">
-      <c r="A17" s="14">
-        <v>9</v>
-      </c>
-      <c r="B17" s="14">
+    <row r="17" spans="1:5" ht="15.75">
+      <c r="A17" s="3">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3">
         <v>43</v>
       </c>
       <c r="C17" s="13">
         <v>1</v>
       </c>
-      <c r="D17" s="14">
-        <v>4</v>
-      </c>
-      <c r="E17" s="18">
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15">
-      <c r="A18" s="14">
-        <v>9</v>
-      </c>
-      <c r="B18" s="14">
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3">
         <v>45</v>
       </c>
       <c r="C18" s="13">
         <v>1</v>
       </c>
-      <c r="D18" s="14">
-        <v>4</v>
-      </c>
-      <c r="E18" s="18">
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15">
-      <c r="A19" s="14">
-        <v>9</v>
-      </c>
-      <c r="B19" s="14">
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="3">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3">
         <v>47</v>
       </c>
       <c r="C19" s="13">
         <v>1</v>
       </c>
-      <c r="D19" s="14">
-        <v>4</v>
-      </c>
-      <c r="E19" s="18">
+      <c r="D19" s="3">
+        <v>4</v>
+      </c>
+      <c r="E19" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15">
-      <c r="A20" s="14">
-        <v>9</v>
-      </c>
-      <c r="B20" s="14">
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="3">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3">
         <v>50</v>
       </c>
       <c r="C20" s="13">
         <v>1</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="3">
         <v>3</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15">
-      <c r="A21" s="14">
-        <v>9</v>
-      </c>
-      <c r="B21" s="14">
+    <row r="21" spans="1:5" ht="15.75">
+      <c r="A21" s="3">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3">
         <v>52</v>
       </c>
       <c r="C21" s="13">
         <v>1</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="3">
         <v>3</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15">
-      <c r="A22" s="14">
-        <v>9</v>
-      </c>
-      <c r="B22" s="14">
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="3">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3">
         <v>54</v>
       </c>
       <c r="C22" s="13">
         <v>1</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="3">
         <v>3</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="14">
-        <v>9</v>
-      </c>
-      <c r="B23" s="14">
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="3">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3">
         <v>56</v>
       </c>
       <c r="C23" s="13">
         <v>1</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="14">
-        <v>9</v>
-      </c>
-      <c r="B24" s="14">
+    <row r="24" spans="1:5" ht="15.75">
+      <c r="A24" s="3">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3">
         <v>59</v>
       </c>
       <c r="C24" s="13">
         <v>1</v>
       </c>
-      <c r="D24" s="14">
-        <v>4</v>
-      </c>
-      <c r="E24" s="18">
+      <c r="D24" s="3">
+        <v>4</v>
+      </c>
+      <c r="E24" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="14">
-        <v>9</v>
-      </c>
-      <c r="B25" s="14">
+    <row r="25" spans="1:5" ht="15.75">
+      <c r="A25" s="3">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3">
         <v>61</v>
       </c>
       <c r="C25" s="13">
         <v>1</v>
       </c>
-      <c r="D25" s="14">
-        <v>4</v>
-      </c>
-      <c r="E25" s="18">
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="14">
-        <v>9</v>
-      </c>
-      <c r="B26" s="14">
+    <row r="26" spans="1:5" ht="15.75">
+      <c r="A26" s="3">
+        <v>9</v>
+      </c>
+      <c r="B26" s="3">
         <v>63</v>
       </c>
       <c r="C26" s="13">
         <v>1</v>
       </c>
-      <c r="D26" s="14">
-        <v>4</v>
-      </c>
-      <c r="E26" s="18">
+      <c r="D26" s="3">
+        <v>4</v>
+      </c>
+      <c r="E26" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15">
-      <c r="A27" s="14">
-        <v>9</v>
-      </c>
-      <c r="B27" s="14">
+    <row r="27" spans="1:5" ht="15.75">
+      <c r="A27" s="3">
+        <v>9</v>
+      </c>
+      <c r="B27" s="3">
         <v>66</v>
       </c>
       <c r="C27" s="13">
         <v>1</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="3">
         <v>3</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="14">
-        <v>9</v>
-      </c>
-      <c r="B28" s="14">
+    <row r="28" spans="1:5" ht="15.75">
+      <c r="A28" s="3">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3">
         <v>70</v>
       </c>
       <c r="C28" s="13">
         <v>1</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="3">
         <v>3</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="14">
-        <v>9</v>
-      </c>
-      <c r="B29" s="14">
+    <row r="29" spans="1:5" ht="15.75">
+      <c r="A29" s="3">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3">
         <v>74</v>
       </c>
       <c r="C29" s="13">
         <v>1</v>
       </c>
-      <c r="D29" s="14">
-        <v>4</v>
-      </c>
-      <c r="E29" s="18">
+      <c r="D29" s="3">
+        <v>4</v>
+      </c>
+      <c r="E29" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="14">
-        <v>9</v>
-      </c>
-      <c r="B30" s="14">
+    <row r="30" spans="1:5" ht="15.75">
+      <c r="A30" s="3">
+        <v>9</v>
+      </c>
+      <c r="B30" s="3">
         <v>76</v>
       </c>
       <c r="C30" s="13">
         <v>1</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="3">
         <v>3</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="14">
-        <v>9</v>
-      </c>
-      <c r="B31" s="14">
+    <row r="31" spans="1:5" ht="15.75">
+      <c r="A31" s="3">
+        <v>9</v>
+      </c>
+      <c r="B31" s="3">
         <v>78</v>
       </c>
       <c r="C31" s="13">
         <v>1</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="3">
         <v>3</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E31" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15">
-      <c r="A32" s="14">
-        <v>9</v>
-      </c>
-      <c r="B32" s="14">
+    <row r="32" spans="1:5" ht="15.75">
+      <c r="A32" s="3">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3">
         <v>80</v>
       </c>
       <c r="C32" s="13">
         <v>1</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="3">
         <v>3</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="16">
         <v>38718</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15">
-      <c r="A33" s="14">
-        <v>9</v>
-      </c>
-      <c r="B33" s="14">
+    <row r="33" spans="1:5" ht="15.75">
+      <c r="A33" s="3">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3">
         <v>82</v>
       </c>
       <c r="C33" s="13">
         <v>1</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="3">
         <v>3</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E33" s="16">
         <v>38718</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>